--- a/Question_Set2/Situational judgment/Business Ethics & Compliance.xlsx
+++ b/Question_Set2/Situational judgment/Business Ethics & Compliance.xlsx
@@ -16,23 +16,66 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your company wants to purchase material X, and you are responsible for obtaining vendor proposals. One of the interested vendors is an old friend, and they message you to get more details of the other proposals before submitting their own bid. How should you respond to your friend’s message?', 'ques_type': 2, 'options': ['Only share information already shared with all bidding vendors.', 'Only share the highest quoted price.', 'Only share the list of vendors who are bidding.', 'Only share the average quoted price.'], 'score': 'Only share information already shared with all bidding vendors.'}, {'title': "You are a human resources (HR) manager at a software company. An employee responsible for access to the company's customer data informs you that one of their friends from another company requested they share your customer information to help them with market analysis. The employee further shared that their friend is trustworthy, and they are confident the friend will maintain confidentiality. The employee seeks your advice regarding the most appropriate response per company policy.What should you suggest?", 'ques_type': 2, 'options': ['Approve sharing the data with their friend if the friend agrees to sign a non-disclosure agreement.', 'Ask the employee to anonymize the data and then share it with their friend.', 'Inform the employee to ask your friend to pay for the data and sign a non-disclosure agreement.', 'Instruct the employee to decline the request and explain that sharing customer data violates company policy and data privacy regulations.'], 'score': 'Instruct the employee to decline the request and explain that sharing customer data violates company policy and data privacy regulations.'}, {'title': 'You are a finance manager and are worried about a continuous decrease in the company’s share price due to low profitability. Your chief financial officer (CFO) suggests that a common practice in the industry is to use the Last in First Out (LIFO) inventory method instead of the First In First Out (FIFO) inventory method being used currently. Making this change would immediately lead to an increase in reported profitability. Before giving your consent, what are some of the ethical factors you should keep in mind?', 'ques_type': 15, 'options': ['How easy is it to reverse the decision in case the regulatory authorities object to it after the posting of your results?', 'What possible perception could this decision cause amongst shareholders and other stakeholders?', 'Does the decision meet all compliance requirements?', 'If implemented, how should this change be communicated to all stakeholders?', 'If regulatory authorities disapprove of this decision, is the liability limited to the organization, or will you be personally liable, too?', 'Do you need to announce this change, or can you go ahead and do this immediately?'], 'score': ['What possible perception could this decision cause amongst shareholders and other stakeholders?', 'Does the decision meet all compliance requirements?', 'If implemented, how should this change be communicated to all stakeholders?']}, {'title': 'You overhear a group of your team members discussing a private video of one of your colleagues that has been posted online without their consent. You have a close professional relationship with this colleague and are concerned about the situation.What is the most appropriate action to take first?', 'ques_type': 2, 'options': ['Address the team members involved in the discussion, emphasizing the importance of respecting privacy and discouraging such conversations.', 'Inform HR about the situation so they can provide guidance and support to the affected colleague and address the behavior of the team members.', 'Investigate the matter further and report your findings to the human resources (HR) department.   ', 'Reach out to the affected colleague privately to offer support and assistance in addressing the situation.'], 'score': 'Reach out to the affected colleague privately to offer support and assistance in addressing the situation.'}]</t>
+    <t>questions = [
+    {
+        "title": "Your company wants to purchase material X, and you are responsible for obtaining vendor proposals. One of the interested vendors is an old friend, and they message you to get more details of the other proposals before submitting their own bid. How should you respond to your friend\u2019s message?",
+        "ques_type": 2,
+        "options": [
+            "Only share information already shared with all bidding vendors.",
+            "Only share the highest quoted price.",
+            "Only share the list of vendors who are bidding.",
+            "Only share the average quoted price."
+        ],
+        "score": "Only share information already shared with all bidding vendors."
+    },
+    {
+        "title": "You are a human resources (HR) manager at a software company. An employee responsible for access to the company's customer data informs you that one of their friends from another company requested they share your customer information to help them with market analysis. The employee further shared that their friend is trustworthy, and they are confident the friend will maintain confidentiality. The employee seeks your advice regarding the most appropriate response per company policy.What should you suggest?",
+        "ques_type": 2,
+        "options": [
+            "Approve sharing the data with their friend if the friend agrees to sign a non-disclosure agreement.",
+            "Ask the employee to anonymize the data and then share it with their friend.",
+            "Inform the employee to ask your friend to pay for the data and sign a non-disclosure agreement.",
+            "Instruct the employee to decline the request and explain that sharing customer data violates company policy and data privacy regulations."
+        ],
+        "score": "Instruct the employee to decline the request and explain that sharing customer data violates company policy and data privacy regulations."
+    },
+    {
+        "title": "You are a finance manager and are worried about a continuous decrease in the company\u2019s share price due to low profitability. Your chief financial officer (CFO) suggests that a common practice in the industry is to use the Last in First Out (LIFO) inventory method instead of the First In First Out (FIFO) inventory method being used currently. Making this change would immediately lead to an increase in reported profitability. Before giving your consent, what are some of the ethical factors you should keep in mind?",
+        "ques_type": 15,
+        "options": [
+            "How easy is it to reverse the decision in case the regulatory authorities object to it after the posting of your results?",
+            "What possible perception could this decision cause amongst shareholders and other stakeholders?",
+            "Does the decision meet all compliance requirements?",
+            "If implemented, how should this change be communicated to all stakeholders?",
+            "If regulatory authorities disapprove of this decision, is the liability limited to the organization, or will you be personally liable, too?",
+            "Do you need to announce this change, or can you go ahead and do this immediately?"
+        ],
+        "score": [
+            "What possible perception could this decision cause amongst shareholders and other stakeholders?",
+            "Does the decision meet all compliance requirements?",
+            "If implemented, how should this change be communicated to all stakeholders?"
+        ]
+    },
+    {
+        "title": "You overhear a group of your team members discussing a private video of one of your colleagues that has been posted online without their consent. You have a close professional relationship with this colleague and are concerned about the situation.What is the most appropriate action to take first?",
+        "ques_type": 2,
+        "options": [
+            "Address the team members involved in the discussion, emphasizing the importance of respecting privacy and discouraging such conversations.",
+            "Inform HR about the situation so they can provide guidance and support to the affected colleague and address the behavior of the team members.",
+            "Investigate the matter further and report your findings to the human resources (HR) department.   ",
+            "Reach out to the affected colleague privately to offer support and assistance in addressing the situation."
+        ],
+        "score": "Reach out to the affected colleague privately to offer support and assistance in addressing the situation."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +99,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +399,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
